--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Btc-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Btc-Erbb3.xlsx
@@ -549,40 +549,40 @@
         <v>1.462727</v>
       </c>
       <c r="I2">
-        <v>0.2248629893758157</v>
+        <v>0.233114009085334</v>
       </c>
       <c r="J2">
-        <v>0.2248629893758157</v>
+        <v>0.2331140090853341</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N2">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O2">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P2">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q2">
-        <v>0.01227097932822222</v>
+        <v>0.08282285324444447</v>
       </c>
       <c r="R2">
-        <v>0.110438813954</v>
+        <v>0.7454056792000001</v>
       </c>
       <c r="S2">
-        <v>0.001099176286442806</v>
+        <v>0.0103121637306745</v>
       </c>
       <c r="T2">
-        <v>0.001099176286442806</v>
+        <v>0.0103121637306745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>1.462727</v>
       </c>
       <c r="I3">
-        <v>0.2248629893758157</v>
+        <v>0.233114009085334</v>
       </c>
       <c r="J3">
-        <v>0.2248629893758157</v>
+        <v>0.2331140090853341</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>1.146943</v>
       </c>
       <c r="O3">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P3">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q3">
         <v>0.1864071659512223</v>
@@ -641,10 +641,10 @@
         <v>1.677664493561</v>
       </c>
       <c r="S3">
-        <v>0.01669747221929977</v>
+        <v>0.02320930927345172</v>
       </c>
       <c r="T3">
-        <v>0.01669747221929978</v>
+        <v>0.02320930927345172</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,40 +673,40 @@
         <v>1.462727</v>
       </c>
       <c r="I4">
-        <v>0.2248629893758157</v>
+        <v>0.233114009085334</v>
       </c>
       <c r="J4">
-        <v>0.2248629893758157</v>
+        <v>0.2331140090853341</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N4">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O4">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P4">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q4">
-        <v>0.3558037920437778</v>
+        <v>0.3195873216246667</v>
       </c>
       <c r="R4">
-        <v>3.202234128394</v>
+        <v>2.876285894622</v>
       </c>
       <c r="S4">
-        <v>0.03187122073797904</v>
+        <v>0.03979139401433692</v>
       </c>
       <c r="T4">
-        <v>0.03187122073797904</v>
+        <v>0.03979139401433692</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>1.462727</v>
       </c>
       <c r="I5">
-        <v>0.2248629893758157</v>
+        <v>0.233114009085334</v>
       </c>
       <c r="J5">
-        <v>0.2248629893758157</v>
+        <v>0.2331140090853341</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N5">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O5">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P5">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q5">
-        <v>1.588428395047667</v>
+        <v>0.8916128815354445</v>
       </c>
       <c r="R5">
-        <v>14.295855555429</v>
+        <v>8.024515933819002</v>
       </c>
       <c r="S5">
-        <v>0.1422839023559622</v>
+        <v>0.1110135386381261</v>
       </c>
       <c r="T5">
-        <v>0.1422839023559622</v>
+        <v>0.1110135386381262</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>1.462727</v>
       </c>
       <c r="I6">
-        <v>0.2248629893758157</v>
+        <v>0.233114009085334</v>
       </c>
       <c r="J6">
-        <v>0.2248629893758157</v>
+        <v>0.2331140090853341</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N6">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O6">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P6">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q6">
-        <v>0.07385032330122222</v>
+        <v>0.03828476639711111</v>
       </c>
       <c r="R6">
-        <v>0.664652909711</v>
+        <v>0.344562897574</v>
       </c>
       <c r="S6">
-        <v>0.006615162649010703</v>
+        <v>0.004766785543024225</v>
       </c>
       <c r="T6">
-        <v>0.006615162649010704</v>
+        <v>0.004766785543024226</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>1.462727</v>
       </c>
       <c r="I7">
-        <v>0.2248629893758157</v>
+        <v>0.233114009085334</v>
       </c>
       <c r="J7">
-        <v>0.2248629893758157</v>
+        <v>0.2331140090853341</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N7">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O7">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P7">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q7">
-        <v>0.2935637830424444</v>
+        <v>0.3535562307456667</v>
       </c>
       <c r="R7">
-        <v>2.642074047382</v>
+        <v>3.182006076711001</v>
       </c>
       <c r="S7">
-        <v>0.02629605512712116</v>
+        <v>0.04402081788572053</v>
       </c>
       <c r="T7">
-        <v>0.02629605512712116</v>
+        <v>0.04402081788572054</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.680747666666667</v>
+        <v>1.604000333333333</v>
       </c>
       <c r="H8">
-        <v>5.042243000000001</v>
+        <v>4.812001</v>
       </c>
       <c r="I8">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="J8">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.02516733333333333</v>
+        <v>0.1698666666666667</v>
       </c>
       <c r="N8">
-        <v>0.075502</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="O8">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="P8">
-        <v>0.00488820454399342</v>
+        <v>0.0442365680687153</v>
       </c>
       <c r="Q8">
-        <v>0.04229993677622223</v>
+        <v>0.2724661899555556</v>
       </c>
       <c r="R8">
-        <v>0.3806994309860001</v>
+        <v>2.452195709600001</v>
       </c>
       <c r="S8">
-        <v>0.003789028257550613</v>
+        <v>0.0339244043380408</v>
       </c>
       <c r="T8">
-        <v>0.003789028257550613</v>
+        <v>0.0339244043380408</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.680747666666667</v>
+        <v>1.604000333333333</v>
       </c>
       <c r="H9">
-        <v>5.042243000000001</v>
+        <v>4.812001</v>
       </c>
       <c r="I9">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="J9">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>1.146943</v>
       </c>
       <c r="O9">
-        <v>0.07425620492571647</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="P9">
-        <v>0.07425620492571648</v>
+        <v>0.09956205276773258</v>
       </c>
       <c r="Q9">
-        <v>0.6425739236832224</v>
+        <v>0.6132323181047779</v>
       </c>
       <c r="R9">
-        <v>5.783165313149001</v>
+        <v>5.519090862943001</v>
       </c>
       <c r="S9">
-        <v>0.05755873270641669</v>
+        <v>0.07635274349428085</v>
       </c>
       <c r="T9">
-        <v>0.0575587327064167</v>
+        <v>0.07635274349428085</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.680747666666667</v>
+        <v>1.604000333333333</v>
       </c>
       <c r="H10">
-        <v>5.042243000000001</v>
+        <v>4.812001</v>
       </c>
       <c r="I10">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="J10">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7297406666666667</v>
+        <v>0.655462</v>
       </c>
       <c r="N10">
-        <v>2.189222</v>
+        <v>1.966386</v>
       </c>
       <c r="O10">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="P10">
-        <v>0.1417361782232307</v>
+        <v>0.1706949924222307</v>
       </c>
       <c r="Q10">
-        <v>1.226509922771778</v>
+        <v>1.051361266487333</v>
       </c>
       <c r="R10">
-        <v>11.038589304946</v>
+        <v>9.462251398386</v>
       </c>
       <c r="S10">
-        <v>0.1098649574852516</v>
+        <v>0.1309035984078938</v>
       </c>
       <c r="T10">
-        <v>0.1098649574852516</v>
+        <v>0.1309035984078938</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.680747666666667</v>
+        <v>1.604000333333333</v>
       </c>
       <c r="H11">
-        <v>5.042243000000001</v>
+        <v>4.812001</v>
       </c>
       <c r="I11">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="J11">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.257809</v>
+        <v>1.828665666666667</v>
       </c>
       <c r="N11">
-        <v>9.773427</v>
+        <v>5.485997</v>
       </c>
       <c r="O11">
-        <v>0.6327582086804054</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="P11">
-        <v>0.6327582086804056</v>
+        <v>0.476219936646915</v>
       </c>
       <c r="Q11">
-        <v>5.475554875195668</v>
+        <v>2.933180338888556</v>
       </c>
       <c r="R11">
-        <v>49.27999387676101</v>
+        <v>26.398623049997</v>
       </c>
       <c r="S11">
-        <v>0.4904743063244432</v>
+        <v>0.3652063980087888</v>
       </c>
       <c r="T11">
-        <v>0.4904743063244433</v>
+        <v>0.3652063980087888</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.680747666666667</v>
+        <v>1.604000333333333</v>
       </c>
       <c r="H12">
-        <v>5.042243000000001</v>
+        <v>4.812001</v>
       </c>
       <c r="I12">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="J12">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1514643333333333</v>
+        <v>0.07852066666666667</v>
       </c>
       <c r="N12">
-        <v>0.454393</v>
+        <v>0.235562</v>
       </c>
       <c r="O12">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="P12">
-        <v>0.02941863695476679</v>
+        <v>0.02044830150589229</v>
       </c>
       <c r="Q12">
-        <v>0.2545733248332223</v>
+        <v>0.1259471755068889</v>
       </c>
       <c r="R12">
-        <v>2.291159923499</v>
+        <v>1.133524579562</v>
       </c>
       <c r="S12">
-        <v>0.02280347430575608</v>
+        <v>0.01568151596286807</v>
       </c>
       <c r="T12">
-        <v>0.02280347430575608</v>
+        <v>0.01568151596286807</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.680747666666667</v>
+        <v>1.604000333333333</v>
       </c>
       <c r="H13">
-        <v>5.042243000000001</v>
+        <v>4.812001</v>
       </c>
       <c r="I13">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="J13">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6020886666666666</v>
+        <v>0.7251310000000001</v>
       </c>
       <c r="N13">
-        <v>1.806266</v>
+        <v>2.175393</v>
       </c>
       <c r="O13">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="P13">
-        <v>0.1169425666718871</v>
+        <v>0.1888381485885141</v>
       </c>
       <c r="Q13">
-        <v>1.011959121626445</v>
+        <v>1.163110365710334</v>
       </c>
       <c r="R13">
-        <v>9.107632094638001</v>
+        <v>10.467993291393</v>
       </c>
       <c r="S13">
-        <v>0.0906465115447659</v>
+        <v>0.1448173307027935</v>
       </c>
       <c r="T13">
-        <v>0.09064651154476591</v>
+        <v>0.1448173307027935</v>
       </c>
     </row>
   </sheetData>
